--- a/biology/Médecine/John_Caius/John_Caius.xlsx
+++ b/biology/Médecine/John_Caius/John_Caius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">John Caius, né le 6 octobre 1510 à Norwich, décédé à Londres le 29 juillet 1573, est un médecin anglais. Il est le second fondateur du Collège Gonville et Caius à Cambridge. « Caius » est la version latinisée du mot anglais  « Kees » ou « Keys » (Clefs) et se prononce : /kiːz/.
 </t>
@@ -511,7 +523,9 @@
           <t>Sa jeunesse</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est admis comme étudiant à Cambridge au Gonville Hall fondé par Edmund Gonville en 1348. Il semble s'être d'abord surtout consacré à la théologie. Ayant obtenu son diplôme 1533, il visite l'Italie, où il est l'élève de Johannes Baptista Montanus et d'André Vésale à Padoue. C'est dans cette ville qu'il obtient, en 1541 son diplôme de médecine. À partir de 1543 il voyage en Italie en Allemagne et en France avant de regagner l'Angleterre.
 </t>
@@ -542,7 +556,9 @@
           <t>Sa carrière</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">il est médecin à Londres en 1547, et est admis au sein du Collège Royal des Médecins (Royal College of Physicians) dont il assurera la présidence durant de nombreuses années. Il fut le médecin du roi Édouard VI et des reines Marie et Élisabeth.
 On lui doit un important travail d'observation clinique de la suette anglaise, une maladie infectieuse mystérieuse qui sévit sous forme d'épidémies durant la Renaissance. Caius fut un témoin privilégié de la dernière épidémie, en 1551.
@@ -577,7 +593,9 @@
           <t>Œuvre</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Annales du Collège de 1555 à 1572 (Annals of the College from 1555 to 1572)
 Traductions en anglais de plusieurs œuvres de Galien, imprimées à l'étranger à diverses époques
